--- a/packages/web/test.xlsx
+++ b/packages/web/test.xlsx
@@ -26,7 +26,7 @@
     <author> </author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0">
+    <comment ref="C3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -39,7 +39,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0">
+    <comment ref="C4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -57,7 +57,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+  <si>
+    <t xml:space="preserve">cols/session</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date initialized</t>
+  </si>
   <si>
     <t xml:space="preserve">experiment title</t>
   </si>
@@ -65,25 +71,28 @@
     <t xml:space="preserve">Addiction Study 12</t>
   </si>
   <si>
+    <t xml:space="preserve">last updated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">num static identifiers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">num treatments</t>
+  </si>
+  <si>
     <t xml:space="preserve">primary experimenter</t>
   </si>
   <si>
     <t xml:space="preserve">Quinn</t>
   </si>
   <si>
-    <t xml:space="preserve">date initialized</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last updated</t>
-  </si>
-  <si>
     <t xml:space="preserve">total sessions</t>
   </si>
   <si>
-    <t xml:space="preserve">cols/session</t>
-  </si>
-  <si>
-    <t xml:space="preserve">num treatments</t>
+    <t xml:space="preserve">treatments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h2o, EtOH</t>
   </si>
   <si>
     <t xml:space="preserve">Session 1</t>
@@ -92,10 +101,7 @@
     <t xml:space="preserve">Session 2</t>
   </si>
   <si>
-    <t xml:space="preserve">RatID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Experimental Condition</t>
+    <t xml:space="preserve">Session 3</t>
   </si>
   <si>
     <t xml:space="preserve">RackID</t>
@@ -104,7 +110,7 @@
     <t xml:space="preserve">CageID</t>
   </si>
   <si>
-    <t xml:space="preserve">body weight</t>
+    <t xml:space="preserve">is Dummy</t>
   </si>
   <si>
     <t xml:space="preserve">pre (h2o)</t>
@@ -117,15 +123,6 @@
   </si>
   <si>
     <t xml:space="preserve">post (EtOH)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0xFFFFFF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cool</t>
   </si>
 </sst>
 </file>
@@ -201,7 +198,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -212,6 +209,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -237,43 +238,43 @@
   </sheetPr>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>3</v>
+      <c r="B2" s="1" t="n">
+        <v>1571544000000</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>1571544000000</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>1581624044775</v>
@@ -281,34 +282,43 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="B7" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="3"/>
+      <c r="A8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -326,13 +336,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M4" activeCellId="0" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.46"/>
@@ -347,34 +357,37 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="0" t="s">
-        <v>10</v>
+      <c r="D1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>18</v>
@@ -383,10 +396,10 @@
         <v>19</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>18</v>
@@ -394,165 +407,155 @@
       <c r="M2" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="N2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="0" t="n">
+      <c r="A3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="F3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="B4" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="C4" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="C5" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="J3" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="G4" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="M4" s="0" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="F5" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="G5" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="K5" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="M5" s="0" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>2</v>
+      <c r="C6" s="4" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>600</v>
+        <v>26</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="I6" s="0" t="n">
         <v>28</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/packages/web/test.xlsx
+++ b/packages/web/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" state="visible" r:id="rId2"/>
@@ -57,10 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
-  <si>
-    <t xml:space="preserve">cols/session</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t xml:space="preserve">date initialized</t>
   </si>
@@ -74,9 +71,6 @@
     <t xml:space="preserve">last updated</t>
   </si>
   <si>
-    <t xml:space="preserve">num static identifiers</t>
-  </si>
-  <si>
     <t xml:space="preserve">num treatments</t>
   </si>
   <si>
@@ -123,6 +117,9 @@
   </si>
   <si>
     <t xml:space="preserve">post (EtOH)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kkkjjj</t>
   </si>
 </sst>
 </file>
@@ -133,7 +130,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -154,6 +151,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -203,7 +207,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -236,13 +240,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.46"/>
@@ -252,72 +256,56 @@
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="n">
-        <v>4</v>
+      <c r="B1" s="1" t="n">
+        <v>1571544</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="n">
-        <v>1571544000000</v>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="s">
         <v>3</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>1581624</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>1581624044775</v>
+      <c r="B4" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>3</v>
+      <c r="B5" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="0" t="s">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="B7" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -338,11 +326,11 @@
   </sheetPr>
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M4" activeCellId="0" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.46"/>
@@ -358,60 +346,60 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="0" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -496,6 +484,9 @@
       </c>
       <c r="K4" s="0" t="n">
         <v>16</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/packages/web/test.xlsx
+++ b/packages/web/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" state="visible" r:id="rId2"/>
@@ -35,7 +35,7 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">A comment on E3</t>
+          <t xml:space="preserve">A comment on C3</t>
         </r>
       </text>
     </comment>
@@ -48,7 +48,8 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">A comment on E3</t>
+          <t xml:space="preserve">A comment on C4
+</t>
         </r>
       </text>
     </comment>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t xml:space="preserve">date initialized</t>
   </si>
@@ -117,9 +118,6 @@
   </si>
   <si>
     <t xml:space="preserve">post (EtOH)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kkkjjj</t>
   </si>
 </sst>
 </file>
@@ -242,11 +240,11 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.46"/>
@@ -326,11 +324,11 @@
   </sheetPr>
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M4" activeCellId="0" sqref="M4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.46"/>
@@ -485,9 +483,6 @@
       <c r="K4" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="M4" s="0" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">

--- a/packages/web/test.xlsx
+++ b/packages/web/test.xlsx
@@ -244,7 +244,7 @@
       <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.46"/>
@@ -325,10 +325,10 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.46"/>
@@ -537,12 +537,6 @@
       <c r="E6" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="F6" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>28</v>
-      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/packages/web/test.xlsx
+++ b/packages/web/test.xlsx
@@ -244,7 +244,7 @@
       <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.46"/>
@@ -325,10 +325,10 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.46"/>

--- a/packages/web/test.xlsx
+++ b/packages/web/test.xlsx
@@ -244,7 +244,7 @@
       <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.46"/>
@@ -322,13 +322,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.46"/>
@@ -538,6 +538,17 @@
         <v>26</v>
       </c>
     </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" s="4" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/packages/web/test.xlsx
+++ b/packages/web/test.xlsx
@@ -1,18 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\digen\Projects\Miami\miami-university-senior-capstone-project\packages\web\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E454731-D355-4FEC-8CE7-E835E8150266}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Metadata" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Data" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Metadata" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -20,13 +33,13 @@
 </workbook>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author> </author>
+    <author/>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -35,11 +48,11 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve">A comment on C3</t>
+          <t>A comment on C3</t>
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -60,95 +73,79 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
-    <t xml:space="preserve">date initialized</t>
-  </si>
-  <si>
-    <t xml:space="preserve">experiment title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Addiction Study 12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">last updated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">num treatments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">primary experimenter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quinn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">total sessions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">treatments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h2o, EtOH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Session 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Session 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Session 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RackID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CageID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">is Dummy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pre (h2o)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pre (EtOH)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">post (h2o)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">post (EtOH)</t>
+    <t>date initialized</t>
+  </si>
+  <si>
+    <t>experiment title</t>
+  </si>
+  <si>
+    <t>Addiction Study 12</t>
+  </si>
+  <si>
+    <t>last updated</t>
+  </si>
+  <si>
+    <t>num treatments</t>
+  </si>
+  <si>
+    <t>primary experimenter</t>
+  </si>
+  <si>
+    <t>Quinn</t>
+  </si>
+  <si>
+    <t>total sessions</t>
+  </si>
+  <si>
+    <t>treatments</t>
+  </si>
+  <si>
+    <t>h2o, EtOH</t>
+  </si>
+  <si>
+    <t>Session 1</t>
+  </si>
+  <si>
+    <t>Session 2</t>
+  </si>
+  <si>
+    <t>Session 3</t>
+  </si>
+  <si>
+    <t>RackID</t>
+  </si>
+  <si>
+    <t>CageID</t>
+  </si>
+  <si>
+    <t>is Dummy</t>
+  </si>
+  <si>
+    <t>pre (h2o)</t>
+  </si>
+  <si>
+    <t>pre (EtOH)</t>
+  </si>
+  <si>
+    <t>post (h2o)</t>
+  </si>
+  <si>
+    <t>post (EtOH)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -167,7 +164,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -175,130 +172,392 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.46"/>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="53.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="1">
         <v>1571544</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="n">
+      <c r="B3" s="2">
         <v>1581624</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>30</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
@@ -307,10 +566,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -318,42 +576,39 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="11.52"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="22.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="12" max="13" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D1" s="0" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -400,152 +655,151 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" s="4" t="n">
-        <f aca="false">TRUE()</f>
+      <c r="C3" s="4" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>3</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3">
         <v>4</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3">
         <v>5</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3">
         <v>6</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3">
         <v>7</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3">
         <v>8</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="L3">
         <v>99</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3">
         <v>98</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="N3">
         <v>97</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="O3">
         <v>96</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C4" s="4" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4">
         <v>9</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>10</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4">
         <v>11</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="G4">
         <v>12</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4">
         <v>13</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4">
         <v>14</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4">
         <v>15</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4">
         <v>16</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" s="0" t="n">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C5" s="4" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5">
         <v>17</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>18</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5">
         <v>19</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="G5">
         <v>20</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5">
         <v>21</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5">
         <v>22</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5">
         <v>23</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5">
         <v>24</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" s="0" t="n">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="C6" s="4" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6">
         <v>25</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>26</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/packages/web/test.xlsx
+++ b/packages/web/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" state="visible" r:id="rId2"/>
@@ -240,11 +240,11 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="53.46"/>
@@ -295,7 +295,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -324,11 +324,11 @@
   </sheetPr>
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.46"/>
@@ -545,7 +545,8 @@
       <c r="B7" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="b">
+      <c r="C7" s="4" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
